--- a/testdaten/Firma5/Wahlvorstand_3002_Personen.xlsx
+++ b/testdaten/Firma5/Wahlvorstand_3002_Personen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_d12\MitbestimmIT\testdaten\Firma5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D47139-4CE0-41A9-BBDF-2159A7684641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC520E-343E-48EE-8D4D-6402BF6B262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Personalnummer</t>
   </si>
@@ -122,13 +122,22 @@
   </si>
   <si>
     <t>Buchhaltung</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Beerdigungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +152,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,11 +195,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -489,15 +514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E3003"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,190 +539,208 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>815</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>102059</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>102060</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>102060</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>102061</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>102062</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>102062</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>102063</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>102064</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>102065</v>
+        <v>102064</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>102065</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>102066</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>102067</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>102068</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102068</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>102069</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
     </row>
